--- a/BCC_MTT_Assay.xlsx
+++ b/BCC_MTT_Assay.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B949FE9E-6E7D-914B-AA68-4DAD0B331FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">BCC Cobimetinib 100 nM </t>
   </si>
@@ -87,12 +94,24 @@
   </si>
   <si>
     <t xml:space="preserve">Day 6 </t>
+  </si>
+  <si>
+    <t>Cell Viability Day 2</t>
+  </si>
+  <si>
+    <t>Cell Viability Day 0</t>
+  </si>
+  <si>
+    <t>Cell Viability Day 4</t>
+  </si>
+  <si>
+    <t>Cell Viability Day 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -160,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,19 +449,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -447,133 +473,310 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>7.7333333333333351E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>(B2/$B$6)*100</f>
+        <v>77.956989247311853</v>
+      </c>
+      <c r="D2">
+        <v>0.26466666666666666</v>
+      </c>
+      <c r="E2">
+        <f>(D2/$B$6)*100</f>
+        <v>266.80107526881721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>9.4499999999999987E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">(B3/$B$6)*100</f>
+        <v>95.262096774193537</v>
+      </c>
+      <c r="D3">
+        <v>0.1245</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">(D3/$B$6)*100</f>
+        <v>125.50403225806453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>8.950000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>90.221774193548399</v>
+      </c>
+      <c r="D4">
+        <v>0.1222</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>123.18548387096774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>8.8333333333333319E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>89.04569892473117</v>
+      </c>
+      <c r="D5">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>171.87500000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>9.9199999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0.187</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>188.50806451612905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>8.2200000000000009E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f>(B7/$B$11)*100</f>
+        <v>72.850812407680948</v>
+      </c>
+      <c r="D7">
+        <v>0.19527272727272729</v>
+      </c>
+      <c r="E7">
+        <f>(D7/$B$11)*100</f>
+        <v>173.06297838055596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0.11233333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" ref="C8:C11" si="2">(B8/$B$11)*100</f>
+        <v>99.556868537666176</v>
+      </c>
+      <c r="D8">
+        <v>0.16783333333333331</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E11" si="3">(D8/$B$11)*100</f>
+        <v>148.74446085672082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0.11083333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>98.227474150664705</v>
+      </c>
+      <c r="D9">
+        <v>0.21080000000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>186.82422451994094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>0.11183333333333334</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>99.113737075332367</v>
+      </c>
+      <c r="D10">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>147.11964549483014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>0.11283333333333333</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>0.18080000000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>160.2363367799114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>(B12/$B$16)*100</f>
+        <v>96.226415094339629</v>
+      </c>
+      <c r="D12">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="E12">
+        <f>(D12/$B$16)*100</f>
+        <v>138.20754716981131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>0.10671428571428572</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" ref="C13:C16" si="4">(B13/$B$16)*100</f>
+        <v>100.67385444743937</v>
+      </c>
+      <c r="D13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E16" si="5">(D13/$B$16)*100</f>
+        <v>132.07547169811323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>0.10099999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>95.283018867924525</v>
+      </c>
+      <c r="D14">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>130.66037735849059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>0.10733333333333334</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>101.25786163522012</v>
+      </c>
+      <c r="D15">
+        <v>9.0500000000000011E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>85.377358490566053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0.106</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>0.18180000000000002</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>171.50943396226415</v>
       </c>
     </row>
   </sheetData>

--- a/BCC_MTT_Assay.xlsx
+++ b/BCC_MTT_Assay.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B949FE9E-6E7D-914B-AA68-4DAD0B331FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67AD830-8BAB-2C4A-A8B8-3A9BB95FCD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zinc" sheetId="4" r:id="rId2"/>
+    <sheet name="Cobimetinib " sheetId="2" r:id="rId3"/>
+    <sheet name="DCAA" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t xml:space="preserve">BCC Cobimetinib 100 nM </t>
   </si>
@@ -106,6 +109,15 @@
   </si>
   <si>
     <t>Cell Viability Day 6</t>
+  </si>
+  <si>
+    <t>Day 0</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug Conc </t>
   </si>
 </sst>
 </file>
@@ -185,6 +197,3558 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MTT Assay with BCC Cells Treated with NEK1 Inhibitor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zinc!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A287-824C-A464-11780EEF6620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6.98 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zinc!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10671428571428572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18633333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A287-824C-A464-11780EEF6620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4.87 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zinc!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A287-824C-A464-11780EEF6620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3.4 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zinc!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0500000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16980000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A287-824C-A464-11780EEF6620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>0 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zinc!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15379999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A287-824C-A464-11780EEF6620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1010968335"/>
+        <c:axId val="1011656191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1010968335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011656191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011656191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010968335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MTT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Assay with BCC Cells Treated with MAP2K1/MEK1  Inhibitor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100 nM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib '!$C$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.7333333333333351E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26466666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>34.78 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib '!$C$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.4499999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18566666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>12.08 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib '!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4.2 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib '!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.8333333333333319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20940000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>0 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib '!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.9199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19766666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="986792783"/>
+        <c:axId val="986724367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="986792783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986724367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986724367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986792783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MTT Assay with BCC Cells Treated with PDHK Inhibitor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>160 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCAA!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2200000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19527272727272729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25419999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>126 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCAA!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11233333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16783333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19320000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCAA!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25480000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>80 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCAA!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17380000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>0 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCAA!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11283333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20775000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003601423"/>
+        <c:axId val="983359503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003601423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983359503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="983359503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003601423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8041BEC-23D3-9F43-B875-7D8FAB4282F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4642543-BA1D-CB4F-BC6A-34B16731A90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9288D80-071C-794D-8C02-19304DCE5D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +4017,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,8 +4073,15 @@
         <v>0.26466666666666666</v>
       </c>
       <c r="E2">
-        <f>(D2/$B$6)*100</f>
-        <v>266.80107526881721</v>
+        <f>(D2/$D$6)*100</f>
+        <v>141.53297682709447</v>
+      </c>
+      <c r="F2">
+        <v>0.2414</v>
+      </c>
+      <c r="G2">
+        <f>(F2/$F$6)*100</f>
+        <v>122.12478920741991</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -528,8 +4099,15 @@
         <v>0.1245</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">(D3/$B$6)*100</f>
-        <v>125.50403225806453</v>
+        <f t="shared" ref="E3:E6" si="1">(D3/$D$6)*100</f>
+        <v>66.577540106951872</v>
+      </c>
+      <c r="F3">
+        <v>0.18566666666666667</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="2">(F3/$F$6)*100</f>
+        <v>93.929173693086014</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -548,7 +4126,14 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>123.18548387096774</v>
+        <v>65.347593582887697</v>
+      </c>
+      <c r="F4">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>83.473861720067461</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -567,7 +4152,14 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>171.87500000000003</v>
+        <v>91.176470588235304</v>
+      </c>
+      <c r="F5">
+        <v>0.20940000000000003</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>105.93591905564925</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -586,7 +4178,14 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>188.50806451612905</v>
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0.19766666666666666</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -604,8 +4203,15 @@
         <v>0.19527272727272729</v>
       </c>
       <c r="E7">
-        <f>(D7/$B$11)*100</f>
-        <v>173.06297838055596</v>
+        <f>(D7/$D$11)*100</f>
+        <v>108.00482703137571</v>
+      </c>
+      <c r="F7">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="G7">
+        <f>(F7/$F$11)*100</f>
+        <v>122.35860409145604</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -616,15 +4222,22 @@
         <v>0.11233333333333333</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C11" si="2">(B8/$B$11)*100</f>
+        <f t="shared" ref="C8:C11" si="3">(B8/$B$11)*100</f>
         <v>99.556868537666176</v>
       </c>
       <c r="D8">
         <v>0.16783333333333331</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E11" si="3">(D8/$B$11)*100</f>
-        <v>148.74446085672082</v>
+        <f t="shared" ref="E8:E11" si="4">(D8/$D$11)*100</f>
+        <v>92.828171091445398</v>
+      </c>
+      <c r="F8">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="5">(F8/$F$11)*100</f>
+        <v>92.996389891696751</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -635,15 +4248,22 @@
         <v>0.11083333333333334</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98.227474150664705</v>
       </c>
       <c r="D9">
         <v>0.21080000000000002</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
-        <v>186.82422451994094</v>
+        <f t="shared" si="4"/>
+        <v>116.59292035398229</v>
+      </c>
+      <c r="F9">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>122.647412755716</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -654,15 +4274,22 @@
         <v>0.11183333333333334</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.113737075332367</v>
       </c>
       <c r="D10">
         <v>0.16600000000000001</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>147.11964549483014</v>
+        <f t="shared" si="4"/>
+        <v>91.814159292035384</v>
+      </c>
+      <c r="F10">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>83.658243080625752</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -673,15 +4300,22 @@
         <v>0.11283333333333333</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="D11">
         <v>0.18080000000000002</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>160.2363367799114</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>0.20775000000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -699,8 +4333,15 @@
         <v>0.14649999999999999</v>
       </c>
       <c r="E12">
-        <f>(D12/$B$16)*100</f>
-        <v>138.20754716981131</v>
+        <f>(D12/$D$16)*100</f>
+        <v>80.583058305830562</v>
+      </c>
+      <c r="F12">
+        <v>0.24200000000000002</v>
+      </c>
+      <c r="G12">
+        <f>(F12/$F$16)*100</f>
+        <v>157.34720416124838</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -711,15 +4352,22 @@
         <v>0.10671428571428572</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C16" si="4">(B13/$B$16)*100</f>
+        <f t="shared" ref="C13:C16" si="6">(B13/$B$16)*100</f>
         <v>100.67385444743937</v>
       </c>
       <c r="D13">
         <v>0.14000000000000001</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E16" si="5">(D13/$B$16)*100</f>
-        <v>132.07547169811323</v>
+        <f t="shared" ref="E13:E16" si="7">(D13/$D$16)*100</f>
+        <v>77.007700770077008</v>
+      </c>
+      <c r="F13">
+        <v>0.18633333333333332</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G16" si="8">(F13/$F$16)*100</f>
+        <v>121.1530125704378</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -730,15 +4378,22 @@
         <v>0.10099999999999999</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>95.283018867924525</v>
       </c>
       <c r="D14">
         <v>0.13850000000000001</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
-        <v>130.66037735849059</v>
+        <f t="shared" si="7"/>
+        <v>76.182618261826178</v>
+      </c>
+      <c r="F14">
+        <v>0.1658</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>107.80234070221067</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -749,15 +4404,22 @@
         <v>0.10733333333333334</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>101.25786163522012</v>
       </c>
       <c r="D15">
         <v>9.0500000000000011E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
-        <v>85.377358490566053</v>
+        <f t="shared" si="7"/>
+        <v>49.779977997799776</v>
+      </c>
+      <c r="F15">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>110.40312093628089</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -768,18 +4430,343 @@
         <v>0.106</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="D16">
         <v>0.18180000000000002</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
-        <v>171.50943396226415</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A60ED4-1167-D84E-85EF-86BF6804D11E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.24200000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.10671428571428572</v>
+      </c>
+      <c r="C3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.18633333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.10099999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.1658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.10733333333333334</v>
+      </c>
+      <c r="C5">
+        <v>9.0500000000000011E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.16980000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.106</v>
+      </c>
+      <c r="C6">
+        <v>0.18180000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.15379999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14E952E-C9BB-C44D-B390-0AE11EE1316D}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>7.7333333333333351E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.26466666666666666</v>
+      </c>
+      <c r="E2">
+        <v>0.2414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>34.78</v>
+      </c>
+      <c r="C3">
+        <v>9.4499999999999987E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.1245</v>
+      </c>
+      <c r="E3">
+        <v>0.18566666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12.08</v>
+      </c>
+      <c r="C4">
+        <v>8.950000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.1222</v>
+      </c>
+      <c r="E4">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>8.8333333333333319E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.20940000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.187</v>
+      </c>
+      <c r="E6">
+        <v>0.19766666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B89D2E-3A39-4F42-BFBA-C1A1983405D4}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8.2200000000000009E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.19527272727272729</v>
+      </c>
+      <c r="D2">
+        <v>0.25419999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.11233333333333333</v>
+      </c>
+      <c r="C3">
+        <v>0.16783333333333331</v>
+      </c>
+      <c r="D3">
+        <v>0.19320000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.11083333333333334</v>
+      </c>
+      <c r="C4">
+        <v>0.21080000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.25480000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.11183333333333334</v>
+      </c>
+      <c r="C5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.17380000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.11283333333333333</v>
+      </c>
+      <c r="C6">
+        <v>0.18080000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.20775000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/BCC_MTT_Assay.xlsx
+++ b/BCC_MTT_Assay.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67AD830-8BAB-2C4A-A8B8-3A9BB95FCD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D2437-407C-4A46-862F-1B0EB876958B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Zinc" sheetId="4" r:id="rId2"/>
-    <sheet name="Cobimetinib " sheetId="2" r:id="rId3"/>
-    <sheet name="DCAA" sheetId="3" r:id="rId4"/>
+    <sheet name="Zinc Absorbance 1" sheetId="4" r:id="rId2"/>
+    <sheet name="Zinc Absorbance Reorder" sheetId="6" r:id="rId3"/>
+    <sheet name="Zinc Percent Viability " sheetId="5" r:id="rId4"/>
+    <sheet name="Cobimetinib Absorbance " sheetId="2" r:id="rId5"/>
+    <sheet name="Cobimetinib Percent Viability" sheetId="7" r:id="rId6"/>
+    <sheet name="DCAA Absorbance" sheetId="3" r:id="rId7"/>
+    <sheet name="DCAA Percent Viability" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t xml:space="preserve">BCC Cobimetinib 100 nM </t>
   </si>
@@ -119,12 +123,15 @@
   <si>
     <t xml:space="preserve">Drug Conc </t>
   </si>
+  <si>
+    <t>Day 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +153,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,6 +200,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,19 +247,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>MTT Assay with BCC Cells Treated with NEK1 Inhibitor</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -264,9 +288,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -299,9 +323,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -310,16 +334,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Zinc!$B$2:$D$2</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.10199999999999999</c:v>
                 </c:pt>
@@ -328,6 +355,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.24200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28800000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,9 +389,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -370,16 +400,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Zinc!$B$3:$D$3</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.10671428571428572</c:v>
                 </c:pt>
@@ -388,6 +421,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.18633333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,9 +455,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -430,16 +466,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Zinc!$B$4:$D$4</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.10099999999999999</c:v>
                 </c:pt>
@@ -448,6 +487,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16933333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,9 +521,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -490,16 +532,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Zinc!$B$5:$D$5</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.10733333333333334</c:v>
                 </c:pt>
@@ -508,6 +553,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16416666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,9 +587,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Zinc!$B$1:$D$1</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -550,16 +598,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Zinc!$B$6:$D$6</c:f>
+              <c:f>'Zinc Absorbance 1'!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.106</c:v>
                 </c:pt>
@@ -568,6 +619,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,10 +660,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -627,9 +678,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -649,6 +700,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Absorbance at 570 nM </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -656,7 +765,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -672,9 +783,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -714,9 +825,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -801,13 +912,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MTT</a:t>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MTT Assay with BCC Cells Treated with NEK1 Inhibitor</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Assay with BCC Cells Treated with MAP2K1/MEK1  Inhibitor</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -847,10 +969,274 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>100 nM</c:v>
+            <c:v>0 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A09-AE46-B752-F9654F5BDD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3.4 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0500000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16416666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A09-AE46-B752-F9654F5BDD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4.87 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16933333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A09-AE46-B752-F9654F5BDD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>6.98 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Absorbance Reorder'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10671428571428572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18633333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A09-AE46-B752-F9654F5BDD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>10 uM </c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -866,9 +1252,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
+              <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -877,24 +1263,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cobimetinib '!$C$2:$E$2</c:f>
+              <c:f>'Zinc Absorbance Reorder'!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.7333333333333351E-2</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26466666666666666</c:v>
+                  <c:v>0.14649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2414</c:v>
+                  <c:v>0.24200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28800000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,247 +1294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>34.78 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib '!$C$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.4499999999999987E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18566666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>12.08 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib '!$C$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.950000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1222</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>4.2 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib '!$C$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.8333333333333319E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20940000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>0 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib '!$C$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib '!$C$6:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.9199999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.187</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19766666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6120-424F-A8E6-F4A0BD82A14A}"/>
+              <c16:uniqueId val="{00000004-5A09-AE46-B752-F9654F5BDD7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1155,11 +1307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986792783"/>
-        <c:axId val="986724367"/>
+        <c:axId val="1010968335"/>
+        <c:axId val="1011656191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986792783"/>
+        <c:axId val="1010968335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,10 +1325,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1189,20 +1338,17 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986724367"/>
+        <c:crossAx val="1011656191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,12 +1356,83 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986724367"/>
+        <c:axId val="1011656191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Absorbance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> at 570 nM </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1223,7 +1440,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1234,20 +1453,17 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986792783"/>
+        <c:crossAx val="1010968335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1276,14 +1492,11 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1291,7 +1504,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1354,6 +1567,2033 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MTT Assay with BCC Cells Treated with NEK1 Inhibitor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Percent Viability '!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Percent Viability '!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F82F-2842-B4B2-65915733CF61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3.4 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Percent Viability '!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Percent Viability '!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>101.25786163522012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.779977997799776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.40312093628089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.617339312406585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F82F-2842-B4B2-65915733CF61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4.87 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Percent Viability '!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Percent Viability '!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95.283018867924525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.182618261826178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.80234070221067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.934230194319881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F82F-2842-B4B2-65915733CF61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>6.98 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Percent Viability '!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Percent Viability '!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100.67385444743937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.007700770077008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.1530125704378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.556053811659197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F82F-2842-B4B2-65915733CF61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>10 uM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zinc Percent Viability '!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zinc Percent Viability '!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>96.226415094339629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.583058305830562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157.34720416124838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.14798206278027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F82F-2842-B4B2-65915733CF61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1010968335"/>
+        <c:axId val="1011656191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1010968335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011656191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011656191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Viability </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010968335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MTT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Assay with BCC Cells Treated with MAP2K1/MEK1  Inhibitor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23840000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4.2 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.8333333333333319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>12.08 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27240000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>34.78 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.4499999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18566666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100 nM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7333333333333351E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26466666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17150000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="986792783"/>
+        <c:axId val="986724367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="986792783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986724367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986724367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Absorbance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> 570 nM</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986792783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MTT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Assay with BCC Cells Treated with MAP2K1/MEK1  Inhibitor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA5A-6745-B27A-9651FF596DA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4.2 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89.04569892473117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.176470588235304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.93591905564925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.134228187919447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA5A-6745-B27A-9651FF596DA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>12.08 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>90.221774193548399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.347593582887697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.473861720067461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.26174496644295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA5A-6745-B27A-9651FF596DA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>34.78 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>95.262096774193537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.577540106951872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.929173693086014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.23238255033554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA5A-6745-B27A-9651FF596DA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100 nM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Percent Viability'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77.956989247311853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.53297682709447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.12478920741991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.937919463087241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FA5A-6745-B27A-9651FF596DA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="986792783"/>
+        <c:axId val="986724367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="986792783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986724367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986724367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Percent Viability </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986792783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
               <a:lnSpc>
                 <a:spcPct val="100000"/>
@@ -1383,43 +3623,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>MTT Assay with BCC Cells Treated with PDHK Inhibitor</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1473,15 +3693,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>160 mM </c:v>
+            <c:v>0 mM </c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1492,9 +3712,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -1503,24 +3723,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DCAA!$B$2:$D$2</c:f>
+              <c:f>'DCAA Absorbance'!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.2200000000000009E-2</c:v>
+                  <c:v>0.11283333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19527272727272729</c:v>
+                  <c:v>0.18080000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25419999999999998</c:v>
+                  <c:v>0.20775000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,20 +3754,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-944B-714C-AE59-A04411A5A58A}"/>
+              <c16:uniqueId val="{00000004-944B-714C-AE59-A04411A5A58A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>126 mM </c:v>
+            <c:v>80 mM </c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1552,9 +3778,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -1563,24 +3789,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DCAA!$B$3:$D$3</c:f>
+              <c:f>'DCAA Absorbance'!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11233333333333333</c:v>
+                  <c:v>0.11183333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16783333333333331</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19320000000000001</c:v>
+                  <c:v>0.17380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20083333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,7 +3820,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-944B-714C-AE59-A04411A5A58A}"/>
+              <c16:uniqueId val="{00000003-944B-714C-AE59-A04411A5A58A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1612,9 +3844,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -1623,16 +3855,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DCAA!$B$4:$D$4</c:f>
+              <c:f>'DCAA Absorbance'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.11083333333333334</c:v>
                 </c:pt>
@@ -1641,6 +3876,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25480000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23383333000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,15 +3891,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>80 mM </c:v>
+            <c:v>126 mM </c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1672,9 +3910,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -1683,24 +3921,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DCAA!$B$5:$D$5</c:f>
+              <c:f>'DCAA Absorbance'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11183333333333334</c:v>
+                  <c:v>0.11233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.16783333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17380000000000001</c:v>
+                  <c:v>0.19320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,20 +3952,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-944B-714C-AE59-A04411A5A58A}"/>
+              <c16:uniqueId val="{00000001-944B-714C-AE59-A04411A5A58A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>0 mM </c:v>
+            <c:v>160 mM </c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1732,9 +3976,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>DCAA!$B$1:$D$1</c:f>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -1743,24 +3987,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DCAA!$B$6:$D$6</c:f>
+              <c:f>'DCAA Absorbance'!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11283333333333333</c:v>
+                  <c:v>8.2200000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18080000000000002</c:v>
+                  <c:v>0.19527272727272729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20775000000000002</c:v>
+                  <c:v>0.25419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15383332999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,7 +4018,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-944B-714C-AE59-A04411A5A58A}"/>
+              <c16:uniqueId val="{00000000-944B-714C-AE59-A04411A5A58A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1792,17 +4042,14 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1815,14 +4062,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1842,6 +4086,83 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Absorbance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> at 570 nM </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1849,7 +4170,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1860,14 +4183,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1902,14 +4222,708 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MTT Assay with BCC Cells Treated with PDHK Inhibitor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Percent Viability'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Percent Viability'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C43-FB47-9257-1F29E447DFAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>80 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Percent Viability'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Percent Viability'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99.113737075332367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.814159292035384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.658243080625752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.91432068543452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C43-FB47-9257-1F29E447DFAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Percent Viability'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Percent Viability'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>98.227474150664705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.59292035398229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.647412755716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.14932680538558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C43-FB47-9257-1F29E447DFAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>126 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Percent Viability'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Percent Viability'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>99.556868537666176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.828171091445398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.996389891696751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.04406364749083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C43-FB47-9257-1F29E447DFAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>160 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Percent Viability'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Percent Viability'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>72.850812407680948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.00482703137571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.35860409145604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.483476132190944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1C43-FB47-9257-1F29E447DFAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003601423"/>
+        <c:axId val="983359503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003601423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983359503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="983359503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Viability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003601423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2080,6 +5094,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3628,20 +6802,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3670,6 +8908,92 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B96B14-3124-9A48-8D20-26AC310E6567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBB9331-AD4B-0646-8DFC-68E2DCAA392A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3710,7 +9034,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E4939B-06C3-3140-A373-93D7B7164DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3735,6 +9102,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A1D866-B1ED-B54A-9F50-E2A3D3DDB6F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4016,8 +9426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4083,6 +9493,13 @@
         <f>(F2/$F$6)*100</f>
         <v>122.12478920741991</v>
       </c>
+      <c r="H2">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="I2">
+        <f>(H2/$H$6)*100</f>
+        <v>71.937919463087241</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -4109,6 +9526,13 @@
         <f t="shared" ref="G3:G6" si="2">(F3/$F$6)*100</f>
         <v>93.929173693086014</v>
       </c>
+      <c r="H3">
+        <v>0.28425</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="3">(H3/$H$6)*100</f>
+        <v>119.23238255033554</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4135,6 +9559,13 @@
         <f t="shared" si="2"/>
         <v>83.473861720067461</v>
       </c>
+      <c r="H4">
+        <v>0.27240000000000003</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>114.26174496644295</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -4161,6 +9592,13 @@
         <f t="shared" si="2"/>
         <v>105.93591905564925</v>
       </c>
+      <c r="H5">
+        <v>0.22679999999999997</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>95.134228187919447</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -4187,6 +9625,13 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
+      <c r="H6">
+        <v>0.23840000000000003</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -4213,6 +9658,13 @@
         <f>(F7/$F$11)*100</f>
         <v>122.35860409145604</v>
       </c>
+      <c r="H7" s="4">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="I7">
+        <f>(H7/$H$11)*100</f>
+        <v>85.483476132190944</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -4222,22 +9674,29 @@
         <v>0.11233333333333333</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C11" si="3">(B8/$B$11)*100</f>
+        <f t="shared" ref="C8:C11" si="4">(B8/$B$11)*100</f>
         <v>99.556868537666176</v>
       </c>
       <c r="D8">
         <v>0.16783333333333331</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E11" si="4">(D8/$D$11)*100</f>
+        <f t="shared" ref="E8:E11" si="5">(D8/$D$11)*100</f>
         <v>92.828171091445398</v>
       </c>
       <c r="F8">
         <v>0.19320000000000001</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G11" si="5">(F8/$F$11)*100</f>
+        <f t="shared" ref="G8:G11" si="6">(F8/$F$11)*100</f>
         <v>92.996389891696751</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I11" si="7">(H8/$H$11)*100</f>
+        <v>92.04406364749083</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4248,22 +9707,29 @@
         <v>0.11083333333333334</v>
       </c>
       <c r="C9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.227474150664705</v>
       </c>
       <c r="D9">
         <v>0.21080000000000002</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116.59292035398229</v>
       </c>
       <c r="F9">
         <v>0.25480000000000003</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>122.647412755716</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>134.14932680538558</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4274,22 +9740,29 @@
         <v>0.11183333333333334</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.113737075332367</v>
       </c>
       <c r="D10">
         <v>0.16600000000000001</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.814159292035384</v>
       </c>
       <c r="F10">
         <v>0.17380000000000001</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83.658243080625752</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>109.91432068543452</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4300,21 +9773,28 @@
         <v>0.11283333333333333</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D11">
         <v>0.18080000000000002</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F11">
         <v>0.20775000000000002</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.20424999999999999</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
@@ -4343,6 +9823,13 @@
         <f>(F12/$F$16)*100</f>
         <v>157.34720416124838</v>
       </c>
+      <c r="H12">
+        <v>0.28800000000000003</v>
+      </c>
+      <c r="I12">
+        <f>(H12/$H$16)*100</f>
+        <v>129.14798206278027</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4352,22 +9839,29 @@
         <v>0.10671428571428572</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C16" si="6">(B13/$B$16)*100</f>
+        <f t="shared" ref="C13:C16" si="8">(B13/$B$16)*100</f>
         <v>100.67385444743937</v>
       </c>
       <c r="D13">
         <v>0.14000000000000001</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E16" si="7">(D13/$D$16)*100</f>
+        <f t="shared" ref="E13:E16" si="9">(D13/$D$16)*100</f>
         <v>77.007700770077008</v>
       </c>
       <c r="F13">
         <v>0.18633333333333332</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G16" si="8">(F13/$F$16)*100</f>
+        <f t="shared" ref="G13:G16" si="10">(F13/$F$16)*100</f>
         <v>121.1530125704378</v>
+      </c>
+      <c r="H13">
+        <v>0.1618</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I16" si="11">(H13/$H$16)*100</f>
+        <v>72.556053811659197</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -4378,22 +9872,29 @@
         <v>0.10099999999999999</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95.283018867924525</v>
       </c>
       <c r="D14">
         <v>0.13850000000000001</v>
       </c>
       <c r="E14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76.182618261826178</v>
       </c>
       <c r="F14">
         <v>0.1658</v>
       </c>
       <c r="G14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>107.80234070221067</v>
+      </c>
+      <c r="H14">
+        <v>0.16933333333333334</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="11"/>
+        <v>75.934230194319881</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -4404,22 +9905,29 @@
         <v>0.10733333333333334</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>101.25786163522012</v>
       </c>
       <c r="D15">
         <v>9.0500000000000011E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49.779977997799776</v>
       </c>
       <c r="F15">
         <v>0.16980000000000001</v>
       </c>
       <c r="G15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>110.40312093628089</v>
+      </c>
+      <c r="H15">
+        <v>0.16416666666666668</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="11"/>
+        <v>73.617339312406585</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -4430,21 +9938,28 @@
         <v>0.106</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D16">
         <v>0.18180000000000002</v>
       </c>
       <c r="E16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="F16">
         <v>0.15379999999999999</v>
       </c>
       <c r="G16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>0.223</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -4455,10 +9970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A60ED4-1167-D84E-85EF-86BF6804D11E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4466,7 +9981,7 @@
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -4476,8 +9991,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4490,8 +10008,11 @@
       <c r="D2">
         <v>0.24200000000000002</v>
       </c>
+      <c r="E2">
+        <v>0.28800000000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4504,8 +10025,11 @@
       <c r="D3">
         <v>0.18633333333333332</v>
       </c>
+      <c r="E3">
+        <v>0.1618</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4518,8 +10042,11 @@
       <c r="D4">
         <v>0.1658</v>
       </c>
+      <c r="E4">
+        <v>0.16933333333333334</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4532,8 +10059,11 @@
       <c r="D5">
         <v>0.16980000000000001</v>
       </c>
+      <c r="E5">
+        <v>0.16416666666666668</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4545,6 +10075,9 @@
       </c>
       <c r="D6">
         <v>0.15379999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.223</v>
       </c>
     </row>
   </sheetData>
@@ -4554,11 +10087,250 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14E952E-C9BB-C44D-B390-0AE11EE1316D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE0C35E-7E41-7641-A3DE-C20702D3D1C3}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0.106</v>
+      </c>
+      <c r="C2">
+        <v>0.18180000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.10733333333333334</v>
+      </c>
+      <c r="C3">
+        <v>9.0500000000000011E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.16416666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.10099999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.1658</v>
+      </c>
+      <c r="E4">
+        <v>0.16933333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.10671428571428572</v>
+      </c>
+      <c r="C5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.18633333333333332</v>
+      </c>
+      <c r="E5">
+        <v>0.1618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.24200000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.28800000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5613E54D-8ADC-3E49-85A6-3A8F61BECC7E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>96.226415094339629</v>
+      </c>
+      <c r="C2">
+        <v>80.583058305830562</v>
+      </c>
+      <c r="D2">
+        <v>157.34720416124838</v>
+      </c>
+      <c r="E2">
+        <v>129.14798206278027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>100.67385444743937</v>
+      </c>
+      <c r="C3">
+        <v>77.007700770077008</v>
+      </c>
+      <c r="D3">
+        <v>121.1530125704378</v>
+      </c>
+      <c r="E3">
+        <v>72.556053811659197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>95.283018867924525</v>
+      </c>
+      <c r="C4">
+        <v>76.182618261826178</v>
+      </c>
+      <c r="D4">
+        <v>107.80234070221067</v>
+      </c>
+      <c r="E4">
+        <v>75.934230194319881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>101.25786163522012</v>
+      </c>
+      <c r="C5">
+        <v>49.779977997799776</v>
+      </c>
+      <c r="D5">
+        <v>110.40312093628089</v>
+      </c>
+      <c r="E5">
+        <v>73.617339312406585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14E952E-C9BB-C44D-B390-0AE11EE1316D}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4566,7 +10338,7 @@
     <col min="1" max="2" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -4579,8 +10351,11 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4596,8 +10371,11 @@
       <c r="E2">
         <v>0.2414</v>
       </c>
+      <c r="F2">
+        <v>0.17150000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4613,8 +10391,11 @@
       <c r="E3">
         <v>0.18566666666666667</v>
       </c>
+      <c r="F3">
+        <v>0.28425</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4630,8 +10411,11 @@
       <c r="E4">
         <v>0.16500000000000001</v>
       </c>
+      <c r="F4">
+        <v>0.27240000000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4647,8 +10431,11 @@
       <c r="E5">
         <v>0.20940000000000003</v>
       </c>
+      <c r="F5">
+        <v>0.22679999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4663,6 +10450,9 @@
       </c>
       <c r="E6">
         <v>0.19766666666666666</v>
+      </c>
+      <c r="F6">
+        <v>0.23840000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4671,12 +10461,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B89D2E-3A39-4F42-BFBA-C1A1983405D4}">
-  <dimension ref="A1:D6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DDEA63-178C-604B-9778-FE3EE2D4B9DD}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>77.956989247311853</v>
+      </c>
+      <c r="D2">
+        <v>141.53297682709447</v>
+      </c>
+      <c r="E2">
+        <v>122.12478920741991</v>
+      </c>
+      <c r="F2">
+        <v>71.937919463087241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>34.78</v>
+      </c>
+      <c r="C3">
+        <v>95.262096774193537</v>
+      </c>
+      <c r="D3">
+        <v>66.577540106951872</v>
+      </c>
+      <c r="E3">
+        <v>93.929173693086014</v>
+      </c>
+      <c r="F3">
+        <v>119.23238255033554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12.08</v>
+      </c>
+      <c r="C4">
+        <v>90.221774193548399</v>
+      </c>
+      <c r="D4">
+        <v>65.347593582887697</v>
+      </c>
+      <c r="E4">
+        <v>83.473861720067461</v>
+      </c>
+      <c r="F4">
+        <v>114.26174496644295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>89.04569892473117</v>
+      </c>
+      <c r="D5">
+        <v>91.176470588235304</v>
+      </c>
+      <c r="E5">
+        <v>105.93591905564925</v>
+      </c>
+      <c r="F5">
+        <v>95.134228187919447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B89D2E-3A39-4F42-BFBA-C1A1983405D4}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4684,7 +10610,7 @@
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -4694,8 +10620,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4708,8 +10637,11 @@
       <c r="D2">
         <v>0.25419999999999998</v>
       </c>
+      <c r="E2" s="3">
+        <v>0.15383332999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4722,8 +10654,11 @@
       <c r="D3">
         <v>0.19320000000000001</v>
       </c>
+      <c r="E3" s="3">
+        <v>0.188</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4736,8 +10671,11 @@
       <c r="D4">
         <v>0.25480000000000003</v>
       </c>
+      <c r="E4" s="3">
+        <v>0.23383333000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4750,8 +10688,11 @@
       <c r="D5">
         <v>0.17380000000000001</v>
       </c>
+      <c r="E5" s="3">
+        <v>0.20083333</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4763,6 +10704,127 @@
       </c>
       <c r="D6">
         <v>0.20775000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7457EDC6-826E-8A4B-BD3C-4C8D7F3A3E96}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>72.850812407680948</v>
+      </c>
+      <c r="C2">
+        <v>108.00482703137571</v>
+      </c>
+      <c r="D2">
+        <v>122.35860409145604</v>
+      </c>
+      <c r="E2" s="3">
+        <v>85.483476132190944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>99.556868537666176</v>
+      </c>
+      <c r="C3">
+        <v>92.828171091445398</v>
+      </c>
+      <c r="D3">
+        <v>92.996389891696751</v>
+      </c>
+      <c r="E3" s="3">
+        <v>92.04406364749083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>98.227474150664705</v>
+      </c>
+      <c r="C4">
+        <v>116.59292035398229</v>
+      </c>
+      <c r="D4">
+        <v>122.647412755716</v>
+      </c>
+      <c r="E4" s="3">
+        <v>134.14932680538558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>99.113737075332367</v>
+      </c>
+      <c r="C5">
+        <v>91.814159292035384</v>
+      </c>
+      <c r="D5">
+        <v>83.658243080625752</v>
+      </c>
+      <c r="E5" s="3">
+        <v>109.91432068543452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/BCC_MTT_Assay.xlsx
+++ b/BCC_MTT_Assay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D2437-407C-4A46-862F-1B0EB876958B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75013314-5E82-3947-BF0C-5ACBD08F47AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3767,6 +3767,72 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Absorbance'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20083333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
@@ -3798,21 +3864,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DCAA Absorbance'!$B$5:$E$5</c:f>
+              <c:f>'DCAA Absorbance'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11183333333333334</c:v>
+                  <c:v>0.11083333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16600000000000001</c:v>
+                  <c:v>0.21080000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17380000000000001</c:v>
+                  <c:v>0.25480000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20083333</c:v>
+                  <c:v>0.23383333000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3820,15 +3886,15 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-944B-714C-AE59-A04411A5A58A}"/>
+              <c16:uniqueId val="{00000002-944B-714C-AE59-A04411A5A58A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>100 mM </c:v>
+            <c:v>126 mM </c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3864,72 +3930,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DCAA Absorbance'!$B$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.11083333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25480000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23383333000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-944B-714C-AE59-A04411A5A58A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>126 mM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'DCAA Absorbance'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3965,7 +3965,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10090,7 +10090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE0C35E-7E41-7641-A3DE-C20702D3D1C3}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -10329,7 +10329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14E952E-C9BB-C44D-B390-0AE11EE1316D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -10602,7 +10602,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BCC_MTT_Assay.xlsx
+++ b/BCC_MTT_Assay.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75013314-5E82-3947-BF0C-5ACBD08F47AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A32FA32-F947-6742-A23B-B693F3CC4F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Zinc Absorbance 1" sheetId="4" r:id="rId2"/>
     <sheet name="Zinc Absorbance Reorder" sheetId="6" r:id="rId3"/>
-    <sheet name="Zinc Percent Viability " sheetId="5" r:id="rId4"/>
-    <sheet name="Cobimetinib Absorbance " sheetId="2" r:id="rId5"/>
-    <sheet name="Cobimetinib Percent Viability" sheetId="7" r:id="rId6"/>
-    <sheet name="DCAA Absorbance" sheetId="3" r:id="rId7"/>
+    <sheet name="Cobimetinib Absorbance " sheetId="2" r:id="rId4"/>
+    <sheet name="DCAA Absorbance" sheetId="3" r:id="rId5"/>
+    <sheet name="Zinc Percent Viability " sheetId="5" r:id="rId6"/>
+    <sheet name="Cobimetinib Percent Viability" sheetId="7" r:id="rId7"/>
     <sheet name="DCAA Percent Viability" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t xml:space="preserve">BCC Cobimetinib 100 nM </t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 0 SD Dev</t>
+  </si>
+  <si>
+    <t>Day 0 SD</t>
+  </si>
+  <si>
+    <t>Day 4 SD</t>
+  </si>
+  <si>
+    <t>Day 2 SD</t>
+  </si>
+  <si>
+    <t>Day 6 SD</t>
+  </si>
+  <si>
+    <t>Day 2 Sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 4 </t>
   </si>
 </sst>
 </file>
@@ -986,6 +1007,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.1731266966810212E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2532199182503088E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8021420377989464E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5421274210094028E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.1731266966810212E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2532199182503088E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8021420377989464E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5421274210094028E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
@@ -1052,6 +1131,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$3:$I$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.2025634707004468E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5511969813008096E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8083803161252741E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4347731608748981E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$3:$I$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.2025634707004468E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5511969813008096E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8083803161252741E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4347731608748981E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
@@ -1118,6 +1255,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$4:$I$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.8792712281827785E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.718455443813627E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1112042031502108E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8402898322456351E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$4:$I$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.8792712281827785E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.718455443813627E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.1112042031502108E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.8402898322456351E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
@@ -1184,6 +1379,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$5:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4109098719148011E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.4467115461227242E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0987430398949279E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.430734077318354E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$5:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4109098719148011E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.4467115461227242E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0987430398949279E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.430734077318354E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
@@ -1250,6 +1503,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.1731266966810212E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2532199182503088E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8021420377989464E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5421274210094028E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Zinc Absorbance Reorder'!$F$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.1731266966810212E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2532199182503088E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8021420377989464E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.5421274210094028E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Zinc Absorbance Reorder'!$B$1:$E$1</c:f>
@@ -1359,6 +1670,8 @@
         <c:axId val="1011656191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1466,6 +1779,7 @@
         <c:crossAx val="1010968335"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1548,6 +1862,1981 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MTT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Assay with BCC Cells Treated with MAP2K1/MEK1  Inhibitor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$6:$K$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.5637099999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6870057685088815E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.5926221389267278E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1674911207452257E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$6:$K$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.5637099999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.6870057685088815E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.5926221389267278E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1674911207452257E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23840000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4.2 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$4:$K$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.6124900000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4206334387732298E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3579652245103212E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.8075981529241404E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$4:$K$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.6124900000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4206334387732298E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3579652245103212E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.8075981529241404E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.8333333333333319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>12.08 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$4:$K$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.6124900000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4206334387732298E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3579652245103212E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.8075981529241404E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$4:$K$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.6124900000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4206334387732298E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3579652245103212E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.8075981529241404E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27240000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>34.78 nM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$2:$K$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.2503300000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.7004504230340553E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7110848922507964E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8861739379323473E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$2:$K$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.2503300000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.7004504230340553E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7110848922507964E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8861739379323473E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.4499999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18566666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>100 nM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$2:$K$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.2503300000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.7004504230340553E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7110848922507964E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8861739379323473E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cobimetinib Absorbance '!$H$2:$K$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.2503300000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.7004504230340553E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.7110848922507964E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8861739379323473E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cobimetinib Absorbance '!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7333333333333351E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26466666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17150000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6120-424F-A8E6-F4A0BD82A14A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="986792783"/>
+        <c:axId val="986724367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="986792783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986724367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986724367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Absorbance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> 570 nM</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986792783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MTT Assay with BCC Cells Treated with PDHK Inhibitor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$6:$I$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.6583293230661235E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.6873055443517044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11311167048541011</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.5840349322747485E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$6:$I$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.6583293230661235E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.6873055443517044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11311167048541011</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.5840349322747485E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Absorbance'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11283333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20775000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>80 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$5:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.0028293307770103E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0820662813656927E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2239904596654876E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9749371855331237E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$5:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.0028293307770103E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0820662813656927E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2239904596654876E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9749371855331237E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Absorbance'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20083333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>100 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$4:$I$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.2765839833973589E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4420715887972827E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7178701370207732E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3891985286592922E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$4:$I$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.2765839833973589E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4420715887972827E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.7178701370207732E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.3891985286592922E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Absorbance'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25480000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23383333000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>126 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$3:$I$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4988884770611529E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.794425736085337E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3905580510909814E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2284749023731888E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$3:$I$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.4988884770611529E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.794425736085337E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3905580510909814E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2284749023731888E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Absorbance'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11233333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16783333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>160 mM </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.1679483388678759E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1253235047869776E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0857738089497325E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7772288346479403E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'DCAA Absorbance'!$F$2:$I$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.1679483388678759E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.1253235047869776E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0857738089497325E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.7772288346479403E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DCAA Absorbance'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2200000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19527272727272729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15383332999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-944B-714C-AE59-A04411A5A58A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1003601423"/>
+        <c:axId val="983359503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1003601423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983359503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="983359503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000003"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Absorbance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> at 570 nM </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1003601423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2225,693 +4514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>MTT</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> Assay with BCC Cells Treated with MAP2K1/MEK1  Inhibitor</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>0 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib Absorbance '!$C$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.9199999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.187</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19766666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23840000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>4.2 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib Absorbance '!$C$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.8333333333333319E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20940000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22679999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>12.08 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib Absorbance '!$C$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.950000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1222</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27240000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>34.78 nM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib Absorbance '!$C$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.4499999999999987E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18566666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>100 nM</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Cobimetinib Absorbance '!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cobimetinib Absorbance '!$C$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.7333333333333351E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26466666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2414</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17150000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6120-424F-A8E6-F4A0BD82A14A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="986792783"/>
-        <c:axId val="986724367"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="986792783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986724367"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="986724367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Absorbance</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> 570 nM</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986792783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3532,709 +5135,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>MTT Assay with BCC Cells Treated with PDHK Inhibitor</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>0 mM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DCAA Absorbance'!$B$6:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.11283333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20775000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1825</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-944B-714C-AE59-A04411A5A58A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>80 mM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DCAA Absorbance'!$B$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.11183333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20083333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-944B-714C-AE59-A04411A5A58A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>100 mM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DCAA Absorbance'!$B$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.11083333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25480000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23383333000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-944B-714C-AE59-A04411A5A58A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>126 mM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DCAA Absorbance'!$B$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.11233333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16783333333333331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.188</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-944B-714C-AE59-A04411A5A58A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>160 mM </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DCAA Absorbance'!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DCAA Absorbance'!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.2200000000000009E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19527272727272729</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15383332999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-944B-714C-AE59-A04411A5A58A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1003601423"/>
-        <c:axId val="983359503"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1003601423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="983359503"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="983359503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Absorbance</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> at 570 nM </a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1003601423"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8954,6 +9854,88 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4642543-BA1D-CB4F-BC6A-34B16731A90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9288D80-071C-794D-8C02-19304DCE5D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -8993,48 +9975,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1663700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4642543-BA1D-CB4F-BC6A-34B16731A90B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9061,47 +10002,6 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9288D80-071C-794D-8C02-19304DCE5D9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10088,10 +10988,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE0C35E-7E41-7641-A3DE-C20702D3D1C3}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10099,7 +10999,7 @@
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -10112,8 +11012,20 @@
       <c r="E1" t="s">
         <v>27</v>
       </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -10129,8 +11041,20 @@
       <c r="E2">
         <v>0.223</v>
       </c>
+      <c r="F2">
+        <v>8.1731266966810212E-3</v>
+      </c>
+      <c r="G2">
+        <v>2.2532199182503088E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.8021420377989464E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.5421274210094028E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -10146,8 +11070,20 @@
       <c r="E3">
         <v>0.16416666666666668</v>
       </c>
+      <c r="F3">
+        <v>5.2025634707004468E-3</v>
+      </c>
+      <c r="G3">
+        <v>3.5511969813008096E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.8083803161252741E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.4347731608748981E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -10163,8 +11099,20 @@
       <c r="E4">
         <v>0.16933333333333334</v>
       </c>
+      <c r="F4">
+        <v>9.8792712281827785E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.718455443813627E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1112042031502108E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.8402898322456351E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -10180,8 +11128,20 @@
       <c r="E5">
         <v>0.1618</v>
       </c>
+      <c r="F5">
+        <v>1.4109098719148011E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.4467115461227242E-3</v>
+      </c>
+      <c r="H5">
+        <v>6.0987430398949279E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.430734077318354E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -10196,6 +11156,18 @@
       </c>
       <c r="E6">
         <v>0.28800000000000003</v>
+      </c>
+      <c r="F6">
+        <v>7.6941536246685396E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.6873055443517044E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.1405159541640779E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.7154003011409068E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10208,6 +11180,405 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14E952E-C9BB-C44D-B390-0AE11EE1316D}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>7.7333333333333351E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.26466666666666666</v>
+      </c>
+      <c r="E2">
+        <v>0.2414</v>
+      </c>
+      <c r="F2">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.2503300000000001E-3</v>
+      </c>
+      <c r="I2">
+        <v>3.7004504230340553E-2</v>
+      </c>
+      <c r="J2">
+        <v>8.7110848922507964E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.8861739379323473E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>34.78</v>
+      </c>
+      <c r="C3">
+        <v>9.4499999999999987E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.1245</v>
+      </c>
+      <c r="E3">
+        <v>0.18566666666666667</v>
+      </c>
+      <c r="F3">
+        <v>0.28425</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8.2401499999999999E-3</v>
+      </c>
+      <c r="I3">
+        <v>2.5193253065056962E-2</v>
+      </c>
+      <c r="J3">
+        <v>6.9266634584528947E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.498499549729797E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12.08</v>
+      </c>
+      <c r="C4">
+        <v>8.950000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.1222</v>
+      </c>
+      <c r="E4">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.27240000000000003</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.6124900000000004E-3</v>
+      </c>
+      <c r="I4">
+        <v>4.4206334387732298E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.3579652245103212E-2</v>
+      </c>
+      <c r="K4">
+        <v>4.8075981529241404E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>8.8333333333333319E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.20940000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.22679999999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4.5460600000000002E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.4999999999999795E-2</v>
+      </c>
+      <c r="J5">
+        <v>6.6055279879809664E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.4159884105682285E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.187</v>
+      </c>
+      <c r="E6">
+        <v>0.19766666666666666</v>
+      </c>
+      <c r="F6">
+        <v>0.23840000000000003</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.5637099999999999E-3</v>
+      </c>
+      <c r="I6">
+        <v>2.6870057685088815E-2</v>
+      </c>
+      <c r="J6">
+        <v>6.5926221389267278E-2</v>
+      </c>
+      <c r="K6">
+        <v>3.1674911207452257E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B89D2E-3A39-4F42-BFBA-C1A1983405D4}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8.2200000000000009E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.19527272727272729</v>
+      </c>
+      <c r="D2">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.15383332999999999</v>
+      </c>
+      <c r="F2">
+        <v>2.1679483388678759E-3</v>
+      </c>
+      <c r="G2">
+        <v>2.1253235047869776E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.0857738089497325E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.7772288346479403E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.11233333333333333</v>
+      </c>
+      <c r="C3">
+        <v>0.16783333333333331</v>
+      </c>
+      <c r="D3">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="F3">
+        <v>1.4988884770611529E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.794425736085337E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.3905580510909814E-2</v>
+      </c>
+      <c r="I3">
+        <v>4.2284749023731888E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.11083333333333334</v>
+      </c>
+      <c r="C4">
+        <v>0.21080000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.23383333000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.2765839833973589E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.4420715887972827E-2</v>
+      </c>
+      <c r="H4">
+        <v>9.7178701370207732E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.3891985286592922E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.11183333333333334</v>
+      </c>
+      <c r="C5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.20083333</v>
+      </c>
+      <c r="F5">
+        <v>1.0028293307770103E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.0820662813656927E-2</v>
+      </c>
+      <c r="H5">
+        <v>9.2239904596654876E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.9749371855331237E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.11283333333333333</v>
+      </c>
+      <c r="C6">
+        <v>0.18080000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.20775000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1825</v>
+      </c>
+      <c r="F6">
+        <v>8.6583293230661235E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.6873055443517044E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.11311167048541011</v>
+      </c>
+      <c r="I6">
+        <v>1.5840349322747485E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5613E54D-8ADC-3E49-85A6-3A8F61BECC7E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -10325,143 +11696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14E952E-C9BB-C44D-B390-0AE11EE1316D}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="27.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>7.7333333333333351E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.26466666666666666</v>
-      </c>
-      <c r="E2">
-        <v>0.2414</v>
-      </c>
-      <c r="F2">
-        <v>0.17150000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>34.78</v>
-      </c>
-      <c r="C3">
-        <v>9.4499999999999987E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.1245</v>
-      </c>
-      <c r="E3">
-        <v>0.18566666666666667</v>
-      </c>
-      <c r="F3">
-        <v>0.28425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>12.08</v>
-      </c>
-      <c r="C4">
-        <v>8.950000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.1222</v>
-      </c>
-      <c r="E4">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.27240000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4.2</v>
-      </c>
-      <c r="C5">
-        <v>8.8333333333333319E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.17050000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.20940000000000003</v>
-      </c>
-      <c r="F5">
-        <v>0.22679999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.187</v>
-      </c>
-      <c r="E6">
-        <v>0.19766666666666666</v>
-      </c>
-      <c r="F6">
-        <v>0.23840000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DDEA63-178C-604B-9778-FE3EE2D4B9DD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -10597,12 +11832,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B89D2E-3A39-4F42-BFBA-C1A1983405D4}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7457EDC6-826E-8A4B-BD3C-4C8D7F3A3E96}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10629,124 +11864,6 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>8.2200000000000009E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.19527272727272729</v>
-      </c>
-      <c r="D2">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.15383332999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.11233333333333333</v>
-      </c>
-      <c r="C3">
-        <v>0.16783333333333331</v>
-      </c>
-      <c r="D3">
-        <v>0.19320000000000001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.11083333333333334</v>
-      </c>
-      <c r="C4">
-        <v>0.21080000000000002</v>
-      </c>
-      <c r="D4">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.23383333000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.11183333333333334</v>
-      </c>
-      <c r="C5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.20083333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.11283333333333333</v>
-      </c>
-      <c r="C6">
-        <v>0.18080000000000002</v>
-      </c>
-      <c r="D6">
-        <v>0.20775000000000002</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.1825</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7457EDC6-826E-8A4B-BD3C-4C8D7F3A3E96}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
         <v>72.850812407680948</v>
       </c>
       <c r="C2">
